--- a/HouseFund/FundService/SiteService-Host/src/main/resources/template/SH_HF_MULTI_TRANSFER_TMP.xlsx
+++ b/HouseFund/FundService/SiteService-Host/src/main/resources/template/SH_HF_MULTI_TRANSFER_TMP.xlsx
@@ -1835,7 +1835,7 @@
 &amp;C&amp;18
 上海市基本公积金部分转移清单&amp;R&amp;12
 第 &amp;P 页，共 &amp;N 页 </oddHeader>
-    <oddFooter xml:space="preserve">&amp;C复核：                      制单人：王莺                    单位盖章
+    <oddFooter xml:space="preserve">&amp;C复核：                      制单人：{{createdBy}}  单位盖章
 &amp;R
 </oddFooter>
   </headerFooter>
@@ -1894,7 +1894,7 @@
 &amp;C&amp;18
 上海市补充公积金部分转移清单&amp;R&amp;12
 第 &amp;P 页，共 &amp;N 页 </oddHeader>
-    <oddFooter xml:space="preserve">&amp;C复核：                      制单人：吾之旻                    单位盖章
+    <oddFooter xml:space="preserve">&amp;C复核：                      制单人：{{createdBy}}  单位盖章
 &amp;R
 </oddFooter>
   </headerFooter>

--- a/HouseFund/FundService/SiteService-Host/src/main/resources/template/SH_HF_MULTI_TRANSFER_TMP.xlsx
+++ b/HouseFund/FundService/SiteService-Host/src/main/resources/template/SH_HF_MULTI_TRANSFER_TMP.xlsx
@@ -1787,7 +1787,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1833,7 +1835,8 @@
 转出单位基本公积金账号：{{transferOutUnitAccount}}
 转入单位基本公积金账号：{{transferInUnitAccount}}
 &amp;C&amp;18
-上海市基本公积金部分转移清单&amp;R&amp;12
+上海市基本公积金部分转移清单&amp;R&amp;12{{companyId}}
+{{paymentBankName}}
 第 &amp;P 页，共 &amp;N 页 </oddHeader>
     <oddFooter xml:space="preserve">&amp;C复核：                      制单人：{{createdBy}}  单位盖章
 &amp;R
@@ -1892,7 +1895,8 @@
 转出单位补充公积金账号：{{transferOutUnitAccount}}
 转入单位补充公积金账号：{{transferInUnitAccount}}
 &amp;C&amp;18
-上海市补充公积金部分转移清单&amp;R&amp;12
+上海市补充公积金部分转移清单&amp;R&amp;12{{companyId}}
+{{paymentBankName}}
 第 &amp;P 页，共 &amp;N 页 </oddHeader>
     <oddFooter xml:space="preserve">&amp;C复核：                      制单人：{{createdBy}}  单位盖章
 &amp;R
